--- a/biology/Botanique/Ledocarpaceae/Ledocarpaceae.xlsx
+++ b/biology/Botanique/Ledocarpaceae/Ledocarpaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ledocarpaceae (Lédocarpacées en français) sont une famille de plantes à fleurs dicotylédones qui comprend 12 espèces réparties en 3 genres.
 Ce sont des sous-arbrisseaux, à feuilles opposées originaires des régions andines d'Amérique du Sud.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre Ledocarpon, dérivé de leda, « sorte de ciste » et carpo, fruit. 
 </t>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification phylogénétique APG III (2009)[1] cette famille est invalide et ses genres sont incorporés dans la famille Vivianiaceae.
-En classification phylogénétique APG IV (2016)[2] les Ledocarpaceae sont inclus dans les Francoaceae[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification phylogénétique APG III (2009) cette famille est invalide et ses genres sont incorporés dans la famille Vivianiaceae.
+En classification phylogénétique APG IV (2016) les Ledocarpaceae sont inclus dans les Francoaceae.
 </t>
         </is>
       </c>
@@ -575,18 +591,20 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (18 mai 2010)[4] et GRIN            (18 mai 2010)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (18 mai 2010) et GRIN            (18 mai 2010) :
 Balbisia (ex Ledocarpon Desf.)
 Rhynchotheca
 Wendtia
-Selon BioLib                    (8 mai 2021)[6] :
+Selon BioLib                    (8 mai 2021) :
 Balbisia Cav.
 Rhynchotheca Ruiz &amp; Pav.
 Viviania Cav.
 Wendtia Meyen
-Selon NCBI  (8 mai 2021)[7] :
+Selon NCBI  (8 mai 2021) :
 Balbisia Cav.
 Bersama Fresen.
 Francoa Cav.
